--- a/doc/4、设计/数据库设计V1.0.xlsx
+++ b/doc/4、设计/数据库设计V1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="14955" windowHeight="8415" tabRatio="922" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="14955" windowHeight="8415" tabRatio="922" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="模板说明" sheetId="10" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="sys_user_role" sheetId="101" r:id="rId13"/>
     <sheet name="grow_user" sheetId="105" r:id="rId14"/>
     <sheet name="grow_user_login" sheetId="106" r:id="rId15"/>
-    <sheet name="grow_area" sheetId="107" r:id="rId16"/>
-    <sheet name="grow_diary" sheetId="108" r:id="rId17"/>
-    <sheet name="grow_diaryimage" sheetId="109" r:id="rId18"/>
+    <sheet name="grow_diary" sheetId="108" r:id="rId16"/>
+    <sheet name="grow_diaryimage" sheetId="109" r:id="rId17"/>
+    <sheet name="grow_area" sheetId="107" r:id="rId18"/>
+    <sheet name="grow_school" sheetId="110" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_2010_xx_xx">#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="329">
   <si>
     <t/>
   </si>
@@ -607,10 +608,6 @@
     <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">sys_area      </t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>列描述</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -1487,6 +1484,139 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
+    <t>growareaid</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域id</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户区域表</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>grow_diary</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>日记表</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>grow_diary</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>日记表</t>
+    <phoneticPr fontId="56" type="noConversion"/>
+  </si>
+  <si>
+    <t>growuserid</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记内容</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的地址</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>diaryid</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>stutas</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageaddress</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记id</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记id</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记图片表</t>
+    <phoneticPr fontId="56" type="noConversion"/>
+  </si>
+  <si>
+    <t>diarycontent</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_diaryimage</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>日记内容html</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_diaryimage</t>
+  </si>
+  <si>
+    <t>日记图片子表</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>业务区域表</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>返回列表</t>
+    <phoneticPr fontId="56" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">_area      </t>
+    </r>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>区域表</t>
+    <phoneticPr fontId="56" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务区域表</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>g</t>
     </r>
@@ -1511,83 +1641,166 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t>growareaid</t>
+    <t>grow_area</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>业务表</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>参照框架</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>学校表</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>grow_school</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t xml:space="preserve">grow_school      </t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>schoolname</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>区域id</t>
+    <t>学校名称</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>注册用户区域表</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>grow_diary</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>日记表</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>grow_diary</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>日记表</t>
-    <phoneticPr fontId="56" type="noConversion"/>
-  </si>
-  <si>
-    <t>growuserid</t>
+    <t>areaid</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>日记内容</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>图片的地址</t>
+    <t>schooltype</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>diaryid</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校类型（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：幼儿园；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：小学；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：中学；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：高中）</t>
+    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>stutas</t>
+    <t>status</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>imageaddress</t>
+    <t>状态</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>图片地址</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记id</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记id</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记图片表</t>
-    <phoneticPr fontId="56" type="noConversion"/>
-  </si>
-  <si>
-    <t>diarycontent</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_diaryimage</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>日记内容html</t>
+    <t>学校类型</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2895,7 +3108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3235,6 +3448,24 @@
     <xf numFmtId="49" fontId="64" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="18" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="18" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3331,38 +3562,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="26" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="31" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="18" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="18" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="26" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -5830,17 +6037,17 @@
     </row>
     <row r="10" spans="1:256" ht="27">
       <c r="B10" s="38"/>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
       <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:256">
@@ -6120,12 +6327,12 @@
       <c r="C13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
       <c r="H13" s="50" t="s">
         <v>29</v>
       </c>
@@ -6390,17 +6597,17 @@
       <c r="C14" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
       <c r="H14" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>242</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>243</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="56"/>
@@ -6654,10 +6861,10 @@
       <c r="A15" s="44"/>
       <c r="B15" s="45"/>
       <c r="C15" s="53"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="55"/>
@@ -6912,10 +7119,10 @@
       <c r="A16" s="44"/>
       <c r="B16" s="45"/>
       <c r="C16" s="53"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
       <c r="J16" s="55"/>
@@ -7170,10 +7377,10 @@
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
       <c r="C17" s="53"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
       <c r="J17" s="55"/>
@@ -7428,10 +7635,10 @@
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
       <c r="C18" s="53"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="117"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="123"/>
       <c r="H18" s="54"/>
       <c r="I18" s="57"/>
       <c r="J18" s="58"/>
@@ -7686,10 +7893,10 @@
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="53"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="58"/>
@@ -7944,10 +8151,10 @@
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="C20" s="53"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
@@ -8202,10 +8409,10 @@
       <c r="A21" s="44"/>
       <c r="B21" s="45"/>
       <c r="C21" s="53"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
       <c r="J21" s="58"/>
@@ -8460,10 +8667,10 @@
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
       <c r="C22" s="53"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="58"/>
@@ -8718,10 +8925,10 @@
       <c r="A23" s="44"/>
       <c r="B23" s="45"/>
       <c r="C23" s="53"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="57"/>
       <c r="I23" s="57"/>
       <c r="J23" s="58"/>
@@ -8976,10 +9183,10 @@
       <c r="A24" s="44"/>
       <c r="B24" s="45"/>
       <c r="C24" s="53"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="57"/>
       <c r="I24" s="57"/>
       <c r="J24" s="58"/>
@@ -9234,10 +9441,10 @@
       <c r="A25" s="44"/>
       <c r="B25" s="45"/>
       <c r="C25" s="53"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="J25" s="58"/>
@@ -9492,10 +9699,10 @@
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
       <c r="C26" s="53"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
       <c r="H26" s="57"/>
       <c r="I26" s="57"/>
       <c r="J26" s="58"/>
@@ -9750,10 +9957,10 @@
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
       <c r="C27" s="53"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
       <c r="H27" s="57"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
@@ -10008,10 +10215,10 @@
       <c r="A28" s="44"/>
       <c r="B28" s="45"/>
       <c r="C28" s="53"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
@@ -10266,10 +10473,10 @@
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
       <c r="C29" s="53"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
       <c r="H29" s="57"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
@@ -10524,10 +10731,10 @@
       <c r="A30" s="44"/>
       <c r="B30" s="45"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
@@ -10782,10 +10989,10 @@
       <c r="A31" s="44"/>
       <c r="B31" s="45"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="60"/>
       <c r="I31" s="60"/>
       <c r="J31" s="61"/>
@@ -11932,7 +12139,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11949,13 +12156,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -11965,13 +12172,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="107" t="s">
         <v>4</v>
@@ -11983,16 +12190,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="107" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12000,13 +12207,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>202</v>
-      </c>
       <c r="D5" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -12018,7 +12225,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12026,13 +12233,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>204</v>
-      </c>
       <c r="D6" s="96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="96">
         <v>64</v>
@@ -12044,7 +12251,7 @@
       <c r="H6" s="97"/>
       <c r="I6" s="98"/>
       <c r="J6" s="99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -12772,7 +12979,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -12789,13 +12996,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -12805,13 +13012,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="107" t="s">
         <v>4</v>
@@ -12823,16 +13030,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="107" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12840,13 +13047,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>202</v>
-      </c>
       <c r="D5" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -12858,7 +13065,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12866,13 +13073,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="109" t="s">
-        <v>208</v>
-      </c>
       <c r="D6" s="96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="96">
         <v>64</v>
@@ -12884,7 +13091,7 @@
       <c r="H6" s="97"/>
       <c r="I6" s="98"/>
       <c r="J6" s="110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -13614,7 +13821,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -13631,13 +13838,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -13653,7 +13860,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="107" t="s">
         <v>4</v>
@@ -13665,16 +13872,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="107" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13682,13 +13889,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -13700,7 +13907,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13708,13 +13915,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>213</v>
-      </c>
       <c r="D6" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="92">
         <v>64</v>
@@ -13725,7 +13932,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
       <c r="J6" s="94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13733,13 +13940,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="92">
         <v>64</v>
@@ -13750,7 +13957,7 @@
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
       <c r="J7" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13758,13 +13965,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>216</v>
-      </c>
       <c r="D8" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="92">
         <v>100</v>
@@ -13775,7 +13982,7 @@
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
       <c r="J8" s="94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13783,13 +13990,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="92" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="92">
         <v>100</v>
@@ -13808,13 +14015,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>219</v>
-      </c>
       <c r="D10" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="92">
         <v>100</v>
@@ -13825,7 +14032,7 @@
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
       <c r="J10" s="94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13833,13 +14040,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="92">
         <v>100</v>
@@ -13850,7 +14057,7 @@
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
       <c r="J11" s="94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13858,13 +14065,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>180</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="92">
         <v>200</v>
@@ -13875,7 +14082,7 @@
       <c r="G12" s="93"/>
       <c r="H12" s="93"/>
       <c r="J12" s="94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13883,13 +14090,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>176</v>
-      </c>
       <c r="D13" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="92">
         <v>200</v>
@@ -13900,7 +14107,7 @@
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
       <c r="J13" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13908,13 +14115,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>222</v>
-      </c>
       <c r="D14" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="92">
         <v>200</v>
@@ -13925,7 +14132,7 @@
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="J14" s="94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13933,13 +14140,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>224</v>
-      </c>
       <c r="D15" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="92">
         <v>1</v>
@@ -13950,7 +14157,7 @@
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
       <c r="J15" s="94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13958,13 +14165,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>226</v>
-      </c>
       <c r="D16" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="92">
         <v>1000</v>
@@ -13981,13 +14188,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>228</v>
-      </c>
       <c r="D17" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="92">
         <v>100</v>
@@ -13996,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14004,13 +14211,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="92" t="s">
-        <v>230</v>
-      </c>
       <c r="D18" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="92" t="s">
         <v>0</v>
@@ -14019,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14027,13 +14234,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>232</v>
-      </c>
       <c r="D19" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="92">
         <v>64</v>
@@ -14050,13 +14257,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D20" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="92">
         <v>64</v>
@@ -14065,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -14073,13 +14280,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="D21" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E21" s="92" t="s">
         <v>0</v>
@@ -14088,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -14096,13 +14303,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D22" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="92">
         <v>64</v>
@@ -14111,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -14119,13 +14326,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D23" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="92" t="s">
         <v>0</v>
@@ -14134,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -14142,13 +14349,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D24" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="92">
         <v>255</v>
@@ -14157,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -14165,13 +14372,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D25" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="96">
         <v>1</v>
@@ -14185,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -14913,7 +15120,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -14936,7 +15143,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -14952,7 +15159,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="107" t="s">
         <v>4</v>
@@ -14964,16 +15171,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="107" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14981,13 +15188,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -14999,7 +15206,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15007,13 +15214,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="96">
         <v>64</v>
@@ -15025,7 +15232,7 @@
       <c r="H6" s="97"/>
       <c r="I6" s="98"/>
       <c r="J6" s="110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -15769,14 +15976,14 @@
       <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>244</v>
+      <c r="B2" s="113" t="s">
+        <v>243</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="154" t="s">
-        <v>279</v>
+      <c r="D2" s="118" t="s">
+        <v>278</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -15821,13 +16028,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -15839,7 +16046,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15847,13 +16054,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>246</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="92">
         <v>64</v>
@@ -15863,8 +16070,8 @@
       </c>
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
-      <c r="J6" s="149" t="s">
-        <v>253</v>
+      <c r="J6" s="115" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15872,13 +16079,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="148" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>247</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="92">
         <v>2000</v>
@@ -15888,8 +16095,8 @@
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
-      <c r="J7" s="149" t="s">
-        <v>254</v>
+      <c r="J7" s="115" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15897,13 +16104,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="148" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>250</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="92">
         <v>100</v>
@@ -15911,8 +16118,8 @@
       <c r="F8" s="92"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
-      <c r="J8" s="149" t="s">
-        <v>251</v>
+      <c r="J8" s="115" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15920,13 +16127,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="148" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>251</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="92">
         <v>100</v>
@@ -15934,8 +16141,8 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
-      <c r="J9" s="149" t="s">
-        <v>252</v>
+      <c r="J9" s="115" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15943,13 +16150,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>287</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="92">
         <v>32</v>
@@ -15957,8 +16164,8 @@
       <c r="F10" s="92"/>
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
-      <c r="J10" s="149" t="s">
-        <v>255</v>
+      <c r="J10" s="115" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15966,13 +16173,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="148" t="s">
-        <v>272</v>
-      </c>
       <c r="D11" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="92">
         <v>1</v>
@@ -15980,8 +16187,8 @@
       <c r="F11" s="92"/>
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
-      <c r="J11" s="149" t="s">
-        <v>273</v>
+      <c r="J11" s="115" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -15989,13 +16196,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="92">
         <v>64</v>
@@ -16004,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -16012,13 +16219,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="D13" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E13" s="92" t="s">
         <v>0</v>
@@ -16027,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -16035,13 +16242,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D14" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="92">
         <v>64</v>
@@ -16050,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -16058,13 +16265,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D15" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="92" t="s">
         <v>0</v>
@@ -16073,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -16081,13 +16288,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D16" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="92">
         <v>255</v>
@@ -16096,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -16104,13 +16311,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="96">
         <v>1</v>
@@ -16124,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -16140,7 +16347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -16868,14 +17077,14 @@
       <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>260</v>
+      <c r="B2" s="113" t="s">
+        <v>259</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="154" t="s">
-        <v>278</v>
+      <c r="D2" s="118" t="s">
+        <v>277</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -16920,13 +17129,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>85</v>
-      </c>
       <c r="D5" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -16938,7 +17147,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16946,13 +17155,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>283</v>
-      </c>
       <c r="D6" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="92">
         <v>32</v>
@@ -16961,7 +17170,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
       <c r="J6" s="94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16969,13 +17178,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="D7" s="92" t="s">
         <v>262</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>263</v>
       </c>
       <c r="E7" s="92"/>
       <c r="F7" s="92" t="s">
@@ -16983,8 +17192,8 @@
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
-      <c r="J7" s="149" t="s">
-        <v>264</v>
+      <c r="J7" s="115" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -16992,13 +17201,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="148" t="s">
-        <v>266</v>
-      </c>
       <c r="D8" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="92">
         <v>100</v>
@@ -17008,8 +17217,8 @@
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
-      <c r="J8" s="149" t="s">
-        <v>267</v>
+      <c r="J8" s="115" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17017,13 +17226,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="148" t="s">
-        <v>269</v>
-      </c>
       <c r="D9" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="92">
         <v>100</v>
@@ -17031,22 +17240,22 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
-      <c r="J9" s="149" t="s">
-        <v>270</v>
+      <c r="J9" s="115" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="100">
         <v>6</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="148" t="s">
-        <v>276</v>
-      </c>
       <c r="D10" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="92">
         <v>100</v>
@@ -17054,8 +17263,8 @@
       <c r="F10" s="92"/>
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
-      <c r="J10" s="149" t="s">
-        <v>274</v>
+      <c r="J10" s="115" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17063,13 +17272,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="148" t="s">
-        <v>272</v>
-      </c>
       <c r="D11" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="92">
         <v>1</v>
@@ -17077,8 +17286,8 @@
       <c r="F11" s="92"/>
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
-      <c r="J11" s="149" t="s">
-        <v>272</v>
+      <c r="J11" s="115" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -17086,13 +17295,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="92">
         <v>64</v>
@@ -17101,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -17109,13 +17318,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="D13" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E13" s="92" t="s">
         <v>0</v>
@@ -17124,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17132,13 +17341,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D14" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="92">
         <v>64</v>
@@ -17147,7 +17356,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17155,13 +17364,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D15" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="92" t="s">
         <v>0</v>
@@ -17170,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -17178,13 +17387,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D16" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="92">
         <v>255</v>
@@ -17193,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -17201,13 +17410,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="96">
         <v>1</v>
@@ -17221,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -17234,1123 +17443,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11" max="256" width="9" style="83"/>
-    <col min="257" max="257" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="267" max="512" width="9" style="83"/>
-    <col min="513" max="513" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="523" max="768" width="9" style="83"/>
-    <col min="769" max="769" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="779" max="1024" width="9" style="83"/>
-    <col min="1025" max="1025" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9" style="83"/>
-    <col min="1281" max="1281" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9" style="83"/>
-    <col min="1537" max="1537" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9" style="83"/>
-    <col min="1793" max="1793" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9" style="83"/>
-    <col min="2049" max="2049" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9" style="83"/>
-    <col min="2305" max="2305" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9" style="83"/>
-    <col min="2561" max="2561" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9" style="83"/>
-    <col min="2817" max="2817" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9" style="83"/>
-    <col min="3073" max="3073" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9" style="83"/>
-    <col min="3329" max="3329" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9" style="83"/>
-    <col min="3585" max="3585" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9" style="83"/>
-    <col min="3841" max="3841" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9" style="83"/>
-    <col min="4097" max="4097" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9" style="83"/>
-    <col min="4353" max="4353" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9" style="83"/>
-    <col min="4609" max="4609" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9" style="83"/>
-    <col min="4865" max="4865" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9" style="83"/>
-    <col min="5121" max="5121" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9" style="83"/>
-    <col min="5377" max="5377" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9" style="83"/>
-    <col min="5633" max="5633" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9" style="83"/>
-    <col min="5889" max="5889" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9" style="83"/>
-    <col min="6145" max="6145" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9" style="83"/>
-    <col min="6401" max="6401" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9" style="83"/>
-    <col min="6657" max="6657" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9" style="83"/>
-    <col min="6913" max="6913" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9" style="83"/>
-    <col min="7169" max="7169" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9" style="83"/>
-    <col min="7425" max="7425" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9" style="83"/>
-    <col min="7681" max="7681" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9" style="83"/>
-    <col min="7937" max="7937" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9" style="83"/>
-    <col min="8193" max="8193" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9" style="83"/>
-    <col min="8449" max="8449" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9" style="83"/>
-    <col min="8705" max="8705" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9" style="83"/>
-    <col min="8961" max="8961" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9" style="83"/>
-    <col min="9217" max="9217" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9" style="83"/>
-    <col min="9473" max="9473" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9" style="83"/>
-    <col min="9729" max="9729" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9" style="83"/>
-    <col min="9985" max="9985" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9" style="83"/>
-    <col min="10241" max="10241" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9" style="83"/>
-    <col min="10497" max="10497" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9" style="83"/>
-    <col min="10753" max="10753" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9" style="83"/>
-    <col min="11009" max="11009" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9" style="83"/>
-    <col min="11265" max="11265" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9" style="83"/>
-    <col min="11521" max="11521" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9" style="83"/>
-    <col min="11777" max="11777" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9" style="83"/>
-    <col min="12033" max="12033" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9" style="83"/>
-    <col min="12289" max="12289" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9" style="83"/>
-    <col min="12545" max="12545" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9" style="83"/>
-    <col min="12801" max="12801" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9" style="83"/>
-    <col min="13057" max="13057" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9" style="83"/>
-    <col min="13313" max="13313" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9" style="83"/>
-    <col min="13569" max="13569" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9" style="83"/>
-    <col min="13825" max="13825" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9" style="83"/>
-    <col min="14081" max="14081" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9" style="83"/>
-    <col min="14337" max="14337" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9" style="83"/>
-    <col min="14593" max="14593" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9" style="83"/>
-    <col min="14849" max="14849" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9" style="83"/>
-    <col min="15105" max="15105" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9" style="83"/>
-    <col min="15361" max="15361" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9" style="83"/>
-    <col min="15617" max="15617" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9" style="83"/>
-    <col min="15873" max="15873" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9" style="83"/>
-    <col min="16129" max="16129" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="12.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="7.625" style="83" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="4.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="6.375" style="83" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="49.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9" style="83"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="147" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="91">
-        <v>1</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="92">
-        <v>64</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="J5" s="94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="91">
-        <v>2</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="92">
-        <v>64</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="J6" s="94" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="91">
-        <v>3</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="92">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="J7" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="91">
-        <v>4</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="92">
-        <v>100</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="J8" s="94" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="91">
-        <v>5</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="92">
-        <v>10</v>
-      </c>
-      <c r="F9" s="92">
-        <v>0</v>
-      </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="J9" s="94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="91">
-        <v>6</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="92">
-        <v>100</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="J10" s="94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="91">
-        <v>7</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="92">
-        <v>1</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="J11" s="94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="91">
-        <v>8</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="92">
-        <v>64</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="J12" s="94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="91">
-        <v>9</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="J13" s="94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="91">
-        <v>10</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="92">
-        <v>64</v>
-      </c>
-      <c r="F14" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="J14" s="94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="91">
-        <v>11</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="J15" s="94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="91">
-        <v>12</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="92">
-        <v>255</v>
-      </c>
-      <c r="F16" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="J16" s="94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="95">
-        <v>13</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="96">
-        <v>1</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98">
-        <v>0</v>
-      </c>
-      <c r="J17" s="99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="数据表一览!A1" display="返回列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -19084,14 +18176,14 @@
       <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>293</v>
+      <c r="B2" s="113" t="s">
+        <v>291</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="154" t="s">
-        <v>294</v>
+      <c r="D2" s="118" t="s">
+        <v>292</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -19136,13 +18228,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>85</v>
-      </c>
       <c r="D5" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -19154,7 +18246,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19162,13 +18254,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="92">
         <v>32</v>
@@ -19177,7 +18269,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
       <c r="J6" s="94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19185,13 +18277,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="148" t="s">
-        <v>296</v>
+        <v>303</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>294</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="92">
         <v>40000</v>
@@ -19201,8 +18293,8 @@
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
-      <c r="J7" s="149" t="s">
-        <v>307</v>
+      <c r="J7" s="115" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -19210,13 +18302,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="148" t="s">
-        <v>272</v>
-      </c>
       <c r="D8" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="92">
         <v>1</v>
@@ -19224,8 +18316,8 @@
       <c r="F8" s="92"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
-      <c r="J8" s="149" t="s">
-        <v>272</v>
+      <c r="J8" s="115" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19233,13 +18325,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D9" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="92">
         <v>64</v>
@@ -19248,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -19256,13 +18348,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="D10" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E10" s="92" t="s">
         <v>0</v>
@@ -19271,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19279,13 +18371,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D11" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="92">
         <v>64</v>
@@ -19294,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -19302,13 +18394,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="92" t="s">
         <v>0</v>
@@ -19317,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -19325,13 +18417,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D13" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="92">
         <v>255</v>
@@ -19340,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19348,13 +18440,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D14" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="96">
         <v>1</v>
@@ -19368,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -19380,13 +18472,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -20114,14 +19204,14 @@
       <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>306</v>
+      <c r="B2" s="113" t="s">
+        <v>304</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="154" t="s">
-        <v>304</v>
+      <c r="D2" s="118" t="s">
+        <v>302</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -20166,13 +19256,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>85</v>
-      </c>
       <c r="D5" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -20184,7 +19274,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20192,13 +19282,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>300</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="92">
         <v>32</v>
@@ -20208,8 +19298,8 @@
       </c>
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
-      <c r="J6" s="149" t="s">
-        <v>303</v>
+      <c r="J6" s="115" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20217,13 +19307,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="C7" s="148" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>299</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="92">
         <v>1000</v>
@@ -20233,8 +19323,8 @@
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
-      <c r="J7" s="149" t="s">
-        <v>297</v>
+      <c r="J7" s="115" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -20242,13 +19332,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="148" t="s">
-        <v>272</v>
+        <v>297</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>271</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="92">
         <v>1</v>
@@ -20256,8 +19346,8 @@
       <c r="F8" s="92"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
-      <c r="J8" s="149" t="s">
-        <v>272</v>
+      <c r="J8" s="115" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -20265,13 +19355,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D9" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="92">
         <v>64</v>
@@ -20280,7 +19370,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -20288,13 +19378,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="D10" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E10" s="92" t="s">
         <v>0</v>
@@ -20303,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20311,13 +19401,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D11" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="92">
         <v>64</v>
@@ -20326,7 +19416,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -20334,13 +19424,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="92" t="s">
         <v>0</v>
@@ -20349,7 +19439,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -20357,13 +19447,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D13" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="92">
         <v>255</v>
@@ -20372,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20380,13 +19470,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D14" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="96">
         <v>1</v>
@@ -20400,7 +19490,2192 @@
         <v>0</v>
       </c>
       <c r="J14" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="数据表一览!A1" display="返回列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="9" style="83"/>
+    <col min="257" max="257" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="267" max="512" width="9" style="83"/>
+    <col min="513" max="513" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="523" max="768" width="9" style="83"/>
+    <col min="769" max="769" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="779" max="1024" width="9" style="83"/>
+    <col min="1025" max="1025" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1280" width="9" style="83"/>
+    <col min="1281" max="1281" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1536" width="9" style="83"/>
+    <col min="1537" max="1537" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1792" width="9" style="83"/>
+    <col min="1793" max="1793" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1803" max="2048" width="9" style="83"/>
+    <col min="2049" max="2049" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2304" width="9" style="83"/>
+    <col min="2305" max="2305" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2560" width="9" style="83"/>
+    <col min="2561" max="2561" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2816" width="9" style="83"/>
+    <col min="2817" max="2817" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2827" max="3072" width="9" style="83"/>
+    <col min="3073" max="3073" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3328" width="9" style="83"/>
+    <col min="3329" max="3329" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3584" width="9" style="83"/>
+    <col min="3585" max="3585" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3840" width="9" style="83"/>
+    <col min="3841" max="3841" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3851" max="4096" width="9" style="83"/>
+    <col min="4097" max="4097" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4352" width="9" style="83"/>
+    <col min="4353" max="4353" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4608" width="9" style="83"/>
+    <col min="4609" max="4609" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4864" width="9" style="83"/>
+    <col min="4865" max="4865" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4875" max="5120" width="9" style="83"/>
+    <col min="5121" max="5121" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5376" width="9" style="83"/>
+    <col min="5377" max="5377" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5632" width="9" style="83"/>
+    <col min="5633" max="5633" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5888" width="9" style="83"/>
+    <col min="5889" max="5889" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5899" max="6144" width="9" style="83"/>
+    <col min="6145" max="6145" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6400" width="9" style="83"/>
+    <col min="6401" max="6401" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6656" width="9" style="83"/>
+    <col min="6657" max="6657" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6912" width="9" style="83"/>
+    <col min="6913" max="6913" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6923" max="7168" width="9" style="83"/>
+    <col min="7169" max="7169" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7424" width="9" style="83"/>
+    <col min="7425" max="7425" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7680" width="9" style="83"/>
+    <col min="7681" max="7681" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7936" width="9" style="83"/>
+    <col min="7937" max="7937" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7947" max="8192" width="9" style="83"/>
+    <col min="8193" max="8193" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8448" width="9" style="83"/>
+    <col min="8449" max="8449" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8704" width="9" style="83"/>
+    <col min="8705" max="8705" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8960" width="9" style="83"/>
+    <col min="8961" max="8961" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8971" max="9216" width="9" style="83"/>
+    <col min="9217" max="9217" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9472" width="9" style="83"/>
+    <col min="9473" max="9473" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9728" width="9" style="83"/>
+    <col min="9729" max="9729" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9984" width="9" style="83"/>
+    <col min="9985" max="9985" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9995" max="10240" width="9" style="83"/>
+    <col min="10241" max="10241" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10496" width="9" style="83"/>
+    <col min="10497" max="10497" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10752" width="9" style="83"/>
+    <col min="10753" max="10753" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10763" max="11008" width="9" style="83"/>
+    <col min="11009" max="11009" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11264" width="9" style="83"/>
+    <col min="11265" max="11265" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11520" width="9" style="83"/>
+    <col min="11521" max="11521" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11776" width="9" style="83"/>
+    <col min="11777" max="11777" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11787" max="12032" width="9" style="83"/>
+    <col min="12033" max="12033" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12288" width="9" style="83"/>
+    <col min="12289" max="12289" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12544" width="9" style="83"/>
+    <col min="12545" max="12545" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12800" width="9" style="83"/>
+    <col min="12801" max="12801" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12811" max="13056" width="9" style="83"/>
+    <col min="13057" max="13057" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13312" width="9" style="83"/>
+    <col min="13313" max="13313" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13568" width="9" style="83"/>
+    <col min="13569" max="13569" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13824" width="9" style="83"/>
+    <col min="13825" max="13825" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13835" max="14080" width="9" style="83"/>
+    <col min="14081" max="14081" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14336" width="9" style="83"/>
+    <col min="14337" max="14337" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14592" width="9" style="83"/>
+    <col min="14593" max="14593" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14848" width="9" style="83"/>
+    <col min="14849" max="14849" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14859" max="15104" width="9" style="83"/>
+    <col min="15105" max="15105" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15360" width="9" style="83"/>
+    <col min="15361" max="15361" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15616" width="9" style="83"/>
+    <col min="15617" max="15617" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15872" width="9" style="83"/>
+    <col min="15873" max="15873" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15883" max="16128" width="9" style="83"/>
+    <col min="16129" max="16129" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16384" width="9" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="J2" s="88"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="91">
+        <v>1</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="92">
+        <v>64</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="J5" s="94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="91">
+        <v>2</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="92">
+        <v>64</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="J6" s="94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="91">
+        <v>3</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="92">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="J7" s="94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="91">
+        <v>4</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="92">
+        <v>100</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="J8" s="94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="91">
+        <v>5</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="92">
+        <v>10</v>
+      </c>
+      <c r="F9" s="92">
+        <v>0</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="J9" s="94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="91">
+        <v>6</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="92">
+        <v>100</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="J10" s="94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="91">
+        <v>7</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="92">
+        <v>1</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="J11" s="94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="91">
+        <v>8</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="92">
+        <v>64</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="J12" s="94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="91">
+        <v>9</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="J13" s="94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="91">
+        <v>10</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="92">
+        <v>64</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="J14" s="94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="91">
+        <v>11</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="J15" s="94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="91">
+        <v>12</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="92">
+        <v>255</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="J16" s="94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="95">
+        <v>13</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="96">
+        <v>1</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98">
+        <v>0</v>
+      </c>
+      <c r="J17" s="99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="数据表一览!A1" display="返回列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="9" style="83"/>
+    <col min="257" max="257" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="267" max="512" width="9" style="83"/>
+    <col min="513" max="513" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="523" max="768" width="9" style="83"/>
+    <col min="769" max="769" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="779" max="1024" width="9" style="83"/>
+    <col min="1025" max="1025" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1280" width="9" style="83"/>
+    <col min="1281" max="1281" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1536" width="9" style="83"/>
+    <col min="1537" max="1537" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1792" width="9" style="83"/>
+    <col min="1793" max="1793" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="1803" max="2048" width="9" style="83"/>
+    <col min="2049" max="2049" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2304" width="9" style="83"/>
+    <col min="2305" max="2305" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2560" width="9" style="83"/>
+    <col min="2561" max="2561" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2816" width="9" style="83"/>
+    <col min="2817" max="2817" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="2827" max="3072" width="9" style="83"/>
+    <col min="3073" max="3073" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3328" width="9" style="83"/>
+    <col min="3329" max="3329" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3584" width="9" style="83"/>
+    <col min="3585" max="3585" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3840" width="9" style="83"/>
+    <col min="3841" max="3841" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="3851" max="4096" width="9" style="83"/>
+    <col min="4097" max="4097" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4352" width="9" style="83"/>
+    <col min="4353" max="4353" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4608" width="9" style="83"/>
+    <col min="4609" max="4609" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4864" width="9" style="83"/>
+    <col min="4865" max="4865" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="4875" max="5120" width="9" style="83"/>
+    <col min="5121" max="5121" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5376" width="9" style="83"/>
+    <col min="5377" max="5377" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5632" width="9" style="83"/>
+    <col min="5633" max="5633" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5888" width="9" style="83"/>
+    <col min="5889" max="5889" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5899" max="6144" width="9" style="83"/>
+    <col min="6145" max="6145" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6400" width="9" style="83"/>
+    <col min="6401" max="6401" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6656" width="9" style="83"/>
+    <col min="6657" max="6657" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6912" width="9" style="83"/>
+    <col min="6913" max="6913" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6923" max="7168" width="9" style="83"/>
+    <col min="7169" max="7169" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7424" width="9" style="83"/>
+    <col min="7425" max="7425" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7680" width="9" style="83"/>
+    <col min="7681" max="7681" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7936" width="9" style="83"/>
+    <col min="7937" max="7937" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="7947" max="8192" width="9" style="83"/>
+    <col min="8193" max="8193" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8448" width="9" style="83"/>
+    <col min="8449" max="8449" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8704" width="9" style="83"/>
+    <col min="8705" max="8705" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8960" width="9" style="83"/>
+    <col min="8961" max="8961" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="8971" max="9216" width="9" style="83"/>
+    <col min="9217" max="9217" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9472" width="9" style="83"/>
+    <col min="9473" max="9473" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9728" width="9" style="83"/>
+    <col min="9729" max="9729" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9984" width="9" style="83"/>
+    <col min="9985" max="9985" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9995" max="10240" width="9" style="83"/>
+    <col min="10241" max="10241" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10496" width="9" style="83"/>
+    <col min="10497" max="10497" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10752" width="9" style="83"/>
+    <col min="10753" max="10753" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="10763" max="11008" width="9" style="83"/>
+    <col min="11009" max="11009" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11264" width="9" style="83"/>
+    <col min="11265" max="11265" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11520" width="9" style="83"/>
+    <col min="11521" max="11521" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11776" width="9" style="83"/>
+    <col min="11777" max="11777" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="11787" max="12032" width="9" style="83"/>
+    <col min="12033" max="12033" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12288" width="9" style="83"/>
+    <col min="12289" max="12289" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12544" width="9" style="83"/>
+    <col min="12545" max="12545" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12800" width="9" style="83"/>
+    <col min="12801" max="12801" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="12811" max="13056" width="9" style="83"/>
+    <col min="13057" max="13057" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13312" width="9" style="83"/>
+    <col min="13313" max="13313" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13568" width="9" style="83"/>
+    <col min="13569" max="13569" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13824" width="9" style="83"/>
+    <col min="13825" max="13825" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13835" max="14080" width="9" style="83"/>
+    <col min="14081" max="14081" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14336" width="9" style="83"/>
+    <col min="14337" max="14337" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14592" width="9" style="83"/>
+    <col min="14593" max="14593" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14848" width="9" style="83"/>
+    <col min="14849" max="14849" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="14859" max="15104" width="9" style="83"/>
+    <col min="15105" max="15105" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15360" width="9" style="83"/>
+    <col min="15361" max="15361" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15616" width="9" style="83"/>
+    <col min="15617" max="15617" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15872" width="9" style="83"/>
+    <col min="15873" max="15873" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="15883" max="16128" width="9" style="83"/>
+    <col min="16129" max="16129" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="12.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="5" style="83" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="7.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="49.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16384" width="9" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="J2" s="88"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="91">
+        <v>1</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="92">
+        <v>64</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="J5" s="94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="91">
+        <v>2</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="92">
+        <v>64</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="J6" s="115" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="91">
+        <v>3</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="92">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="J7" s="94" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="91">
+        <v>7</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="92">
+        <v>1</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="J8" s="94" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="91">
+        <v>7</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="92">
+        <v>1</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="J9" s="115" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="91">
+        <v>8</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="92">
+        <v>64</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="J10" s="94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="91">
+        <v>9</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="J11" s="94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="91">
+        <v>10</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="92">
+        <v>64</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="J12" s="94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="91">
+        <v>11</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="J13" s="94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="91">
+        <v>12</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="92">
+        <v>255</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="J14" s="94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="95">
+        <v>13</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="96">
+        <v>1</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98">
+        <v>0</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -20515,15 +21790,15 @@
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
       <c r="M6" s="6"/>
@@ -20532,13 +21807,13 @@
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
       <c r="M7" s="6"/>
@@ -20547,13 +21822,13 @@
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
       <c r="M8" s="6"/>
@@ -20562,13 +21837,13 @@
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
       <c r="M9" s="6"/>
@@ -20577,13 +21852,13 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
       <c r="M10" s="6"/>
@@ -20669,22 +21944,22 @@
       <c r="C16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="132" t="s">
+      <c r="D16" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="133"/>
+      <c r="E16" s="139"/>
       <c r="F16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="140">
         <v>42723</v>
       </c>
-      <c r="H16" s="133"/>
+      <c r="H16" s="139"/>
       <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="132"/>
-      <c r="K16" s="137"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="143"/>
       <c r="L16" s="12"/>
       <c r="M16" s="6"/>
     </row>
@@ -20694,35 +21969,35 @@
       <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
       <c r="I17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="138"/>
-      <c r="K17" s="139"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
       <c r="L17" s="12"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="23.25" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="135"/>
       <c r="L18" s="12"/>
       <c r="M18" s="6"/>
     </row>
@@ -20732,20 +22007,20 @@
       <c r="C19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="124"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="125" t="s">
+      <c r="G19" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="132"/>
       <c r="L19" s="12"/>
       <c r="M19" s="6"/>
     </row>
@@ -20755,20 +22030,20 @@
       <c r="C20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="131"/>
+      <c r="E20" s="137"/>
       <c r="F20" s="68">
         <v>42723</v>
       </c>
-      <c r="G20" s="143" t="s">
+      <c r="G20" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="150"/>
       <c r="L20" s="12"/>
       <c r="M20" s="6"/>
     </row>
@@ -20776,14 +22051,14 @@
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
       <c r="F21" s="68"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="144"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="150"/>
       <c r="L21" s="12"/>
       <c r="M21" s="6"/>
     </row>
@@ -20791,14 +22066,14 @@
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150"/>
       <c r="L22" s="12"/>
       <c r="M22" s="6"/>
     </row>
@@ -20806,14 +22081,14 @@
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="144"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
       <c r="L23" s="12"/>
       <c r="M23" s="6"/>
     </row>
@@ -20821,14 +22096,14 @@
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="147"/>
       <c r="L24" s="12"/>
       <c r="M24" s="6"/>
     </row>
@@ -20947,10 +22222,10 @@
     <tabColor indexed="48"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="21.95" customHeight="1"/>
@@ -20967,15 +22242,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A1" s="153" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="146"/>
+      <c r="A1" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1">
       <c r="A2" s="78"/>
@@ -21027,19 +22302,19 @@
       <c r="B5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="116" t="s">
         <v>53</v>
       </c>
     </row>
@@ -21047,7 +22322,7 @@
       <c r="A6" s="74">
         <v>1</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="117" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -21068,7 +22343,7 @@
       <c r="A7" s="74">
         <v>2</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="117" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="71" t="s">
@@ -21087,20 +22362,20 @@
     </row>
     <row r="8" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A8" s="74">
-        <v>4</v>
-      </c>
-      <c r="B8" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="71" t="s">
         <v>155</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>156</v>
       </c>
       <c r="D8" s="72" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="72"/>
       <c r="F8" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="73">
         <v>42723</v>
@@ -21108,9 +22383,9 @@
     </row>
     <row r="9" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A9" s="74">
-        <v>3</v>
-      </c>
-      <c r="B9" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="117" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="71" t="s">
@@ -21129,9 +22404,9 @@
     </row>
     <row r="10" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A10" s="74">
-        <v>4</v>
-      </c>
-      <c r="B10" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="117" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -21150,9 +22425,9 @@
     </row>
     <row r="11" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A11" s="74">
-        <v>5</v>
-      </c>
-      <c r="B11" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="117" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -21171,9 +22446,9 @@
     </row>
     <row r="12" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A12" s="74">
-        <v>6</v>
-      </c>
-      <c r="B12" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="117" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="71" t="s">
@@ -21192,10 +22467,10 @@
     </row>
     <row r="13" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A13" s="74">
-        <v>7</v>
-      </c>
-      <c r="B13" s="151" t="s">
-        <v>234</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>233</v>
       </c>
       <c r="C13" s="71" t="s">
         <v>65</v>
@@ -21213,37 +22488,37 @@
     </row>
     <row r="14" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A14" s="74">
-        <v>8</v>
-      </c>
-      <c r="B14" s="151" t="s">
-        <v>239</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>238</v>
       </c>
       <c r="C14" s="71" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G14" s="73">
         <v>42723</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A15" s="77">
-        <v>9</v>
-      </c>
-      <c r="B15" s="152" t="s">
+      <c r="A15" s="74">
+        <v>10</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="72" t="s">
         <v>256</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>257</v>
       </c>
       <c r="E15" s="72"/>
       <c r="F15" s="72" t="s">
@@ -21254,17 +22529,17 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A16" s="77">
-        <v>9</v>
-      </c>
-      <c r="B16" s="152" t="s">
-        <v>277</v>
+      <c r="A16" s="74">
+        <v>11</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>276</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="72" t="s">
@@ -21276,13 +22551,13 @@
     </row>
     <row r="17" spans="1:7" s="75" customFormat="1" ht="13.5">
       <c r="A17" s="74">
-        <v>1</v>
-      </c>
-      <c r="B17" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="117" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D17" s="72" t="s">
         <v>77</v>
@@ -21296,11 +22571,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1">
-      <c r="B18" s="26" t="s">
-        <v>291</v>
+      <c r="A18" s="74">
+        <v>13</v>
+      </c>
+      <c r="B18" s="117" t="s">
+        <v>289</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D18" s="72" t="s">
         <v>77</v>
@@ -21311,6 +22589,73 @@
       </c>
       <c r="G18" s="73">
         <v>42723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A19" s="74">
+        <v>14</v>
+      </c>
+      <c r="B19" s="117" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="73">
+        <v>42723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="75" customFormat="1" ht="13.5">
+      <c r="A20" s="74">
+        <v>1</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="73">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A21" s="74">
+        <v>1</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="73">
+        <v>42724</v>
       </c>
     </row>
   </sheetData>
@@ -21331,6 +22676,10 @@
     <hyperlink ref="B15" location="grow_user!A1" display="grow_user"/>
     <hyperlink ref="B16" location="grow_user_login!A1" display="grow_user_login"/>
     <hyperlink ref="B17" location="grow_area!A1" display="sys_area"/>
+    <hyperlink ref="B18" location="grow_diary!A1" display="grow_diary"/>
+    <hyperlink ref="B19" location="grow_diaryimage!A1" display="grow_diaryimage"/>
+    <hyperlink ref="B20" location="grow_area!A1" display="grow_area"/>
+    <hyperlink ref="B21" location="grow_school!A1" display="grow_school"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -21343,7 +22692,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22056,7 +23405,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="82" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -22072,14 +23421,14 @@
       <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="s">
-        <v>79</v>
+      <c r="B2" s="113" t="s">
+        <v>310</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="87" t="s">
-        <v>46</v>
+      <c r="D2" s="118" t="s">
+        <v>311</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -22095,7 +23444,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="86" t="s">
         <v>4</v>
@@ -22107,16 +23456,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="86" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="90" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>83</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -22125,13 +23474,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="D5" s="92" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="92">
         <v>64</v>
@@ -22142,7 +23491,7 @@
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="J5" s="94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -22150,13 +23499,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="92">
         <v>64</v>
@@ -22167,7 +23516,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
       <c r="J6" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -22175,13 +23524,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>90</v>
-      </c>
       <c r="D7" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="92">
         <v>2000</v>
@@ -22192,7 +23541,7 @@
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
       <c r="J7" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -22200,13 +23549,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="D8" s="92" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>93</v>
       </c>
       <c r="E8" s="92">
         <v>100</v>
@@ -22217,7 +23566,7 @@
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
       <c r="J8" s="94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -22225,13 +23574,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="D9" s="92" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>96</v>
       </c>
       <c r="E9" s="92">
         <v>10</v>
@@ -22242,7 +23591,7 @@
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
       <c r="J9" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -22250,13 +23599,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>98</v>
-      </c>
       <c r="D10" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="92">
         <v>100</v>
@@ -22267,7 +23616,7 @@
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
       <c r="J10" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -22275,13 +23624,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="D11" s="92" t="s">
         <v>100</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>101</v>
       </c>
       <c r="E11" s="92">
         <v>1</v>
@@ -22292,7 +23641,7 @@
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
       <c r="J11" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -22300,13 +23649,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="92">
         <v>64</v>
@@ -22317,7 +23666,7 @@
       <c r="G12" s="93"/>
       <c r="H12" s="93"/>
       <c r="J12" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -22325,13 +23674,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="D13" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E13" s="92" t="s">
         <v>0</v>
@@ -22342,7 +23691,7 @@
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
       <c r="J13" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -22350,13 +23699,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D14" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="92">
         <v>64</v>
@@ -22367,7 +23716,7 @@
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="J14" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -22375,13 +23724,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D15" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="92" t="s">
         <v>0</v>
@@ -22392,7 +23741,7 @@
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
       <c r="J15" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -22400,13 +23749,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D16" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="92">
         <v>255</v>
@@ -22417,7 +23766,7 @@
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
       <c r="J16" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -22425,13 +23774,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="96">
         <v>1</v>
@@ -22445,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -23173,7 +24522,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -23190,13 +24539,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -23206,13 +24555,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="86" t="s">
         <v>4</v>
@@ -23224,16 +24573,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="86" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="90" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23241,13 +24590,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -23261,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23269,13 +24618,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="92">
         <v>1</v>
@@ -23289,7 +24638,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23297,13 +24646,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D7" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="92">
         <v>64</v>
@@ -23317,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -23325,13 +24674,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="D8" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E8" s="92" t="s">
         <v>0</v>
@@ -23345,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -23353,13 +24702,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>124</v>
-      </c>
       <c r="D9" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="92">
         <v>255</v>
@@ -23373,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -23381,13 +24730,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>126</v>
-      </c>
       <c r="D10" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="92">
         <v>255</v>
@@ -23401,7 +24750,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -23409,13 +24758,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>128</v>
-      </c>
       <c r="D11" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="92">
         <v>255</v>
@@ -23429,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -23437,13 +24786,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>130</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="92">
         <v>5</v>
@@ -23457,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5">
@@ -23465,13 +24814,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="D13" s="92" t="s">
         <v>132</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>133</v>
       </c>
       <c r="E13" s="92" t="s">
         <v>0</v>
@@ -23485,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -23493,13 +24842,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>135</v>
-      </c>
       <c r="D14" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="96" t="s">
         <v>0</v>
@@ -23513,7 +24862,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -24257,7 +25606,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -24274,13 +25623,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -24290,13 +25639,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="107" t="s">
         <v>4</v>
@@ -24308,16 +25657,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="107" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24325,13 +25674,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -24343,7 +25692,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24351,13 +25700,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="92">
         <v>64</v>
@@ -24368,7 +25717,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
       <c r="J6" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24376,13 +25725,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>90</v>
-      </c>
       <c r="D7" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="92">
         <v>2000</v>
@@ -24393,7 +25742,7 @@
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
       <c r="J7" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -24401,13 +25750,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="D8" s="92" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>93</v>
       </c>
       <c r="E8" s="92">
         <v>100</v>
@@ -24418,7 +25767,7 @@
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
       <c r="J8" s="94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24426,13 +25775,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="D9" s="92" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>96</v>
       </c>
       <c r="E9" s="92">
         <v>10</v>
@@ -24443,7 +25792,7 @@
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
       <c r="J9" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -24451,13 +25800,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>141</v>
-      </c>
       <c r="D10" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="92">
         <v>2000</v>
@@ -24468,7 +25817,7 @@
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
       <c r="J10" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -24476,13 +25825,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>143</v>
-      </c>
       <c r="D11" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="92">
         <v>20</v>
@@ -24493,7 +25842,7 @@
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
       <c r="J11" s="94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -24501,13 +25850,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>146</v>
-      </c>
       <c r="D12" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="92">
         <v>100</v>
@@ -24518,7 +25867,7 @@
       <c r="G12" s="93"/>
       <c r="H12" s="93"/>
       <c r="J12" s="94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5">
@@ -24526,13 +25875,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>148</v>
-      </c>
       <c r="D13" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="92">
         <v>1</v>
@@ -24543,7 +25892,7 @@
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
       <c r="J13" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -24551,13 +25900,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="D14" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="92">
         <v>200</v>
@@ -24568,7 +25917,7 @@
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="J14" s="94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -24576,13 +25925,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="D15" s="92" t="s">
         <v>153</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>154</v>
       </c>
       <c r="E15" s="92">
         <v>64</v>
@@ -24593,7 +25942,7 @@
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
       <c r="J15" s="94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -24601,13 +25950,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="D16" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E16" s="92" t="s">
         <v>0</v>
@@ -24618,7 +25967,7 @@
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
       <c r="J16" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -24626,13 +25975,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D17" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="92">
         <v>64</v>
@@ -24643,7 +25992,7 @@
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
       <c r="J17" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -24651,13 +26000,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D18" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="92" t="s">
         <v>0</v>
@@ -24668,7 +26017,7 @@
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="J18" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -24676,13 +26025,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D19" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="92">
         <v>255</v>
@@ -24693,7 +26042,7 @@
       <c r="G19" s="93"/>
       <c r="H19" s="93"/>
       <c r="J19" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -24701,13 +26050,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D20" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="96">
         <v>1</v>
@@ -24721,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -24737,9 +26086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -25451,7 +26798,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -25468,13 +26815,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -25484,13 +26831,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="107" t="s">
         <v>4</v>
@@ -25502,16 +26849,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="107" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -25519,13 +26866,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -25537,7 +26884,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25545,13 +26892,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="92">
         <v>64</v>
@@ -25562,7 +26909,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
       <c r="J6" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -25570,13 +26917,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>90</v>
-      </c>
       <c r="D7" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="92">
         <v>2000</v>
@@ -25587,7 +26934,7 @@
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
       <c r="J7" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -25595,13 +26942,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="D8" s="92" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>93</v>
       </c>
       <c r="E8" s="92">
         <v>100</v>
@@ -25612,7 +26959,7 @@
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
       <c r="J8" s="94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25620,13 +26967,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="D9" s="92" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>96</v>
       </c>
       <c r="E9" s="92">
         <v>10</v>
@@ -25637,7 +26984,7 @@
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
       <c r="J9" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -25645,13 +26992,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>163</v>
-      </c>
       <c r="D10" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="92">
         <v>64</v>
@@ -25662,7 +27009,7 @@
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
       <c r="J10" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25670,13 +27017,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>98</v>
-      </c>
       <c r="D11" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="92">
         <v>100</v>
@@ -25687,7 +27034,7 @@
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
       <c r="J11" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -25695,13 +27042,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="92">
         <v>1</v>
@@ -25712,7 +27059,7 @@
       <c r="G12" s="93"/>
       <c r="H12" s="93"/>
       <c r="J12" s="94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -25720,13 +27067,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>167</v>
-      </c>
       <c r="D13" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="92">
         <v>1</v>
@@ -25737,7 +27084,7 @@
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
       <c r="J13" s="94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -25745,13 +27092,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>170</v>
-      </c>
       <c r="D14" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="92">
         <v>255</v>
@@ -25762,7 +27109,7 @@
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="J14" s="94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -25770,13 +27117,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>172</v>
-      </c>
       <c r="D15" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="92">
         <v>100</v>
@@ -25787,7 +27134,7 @@
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
       <c r="J15" s="94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -25795,13 +27142,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>174</v>
-      </c>
       <c r="D16" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="92">
         <v>100</v>
@@ -25812,7 +27159,7 @@
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
       <c r="J16" s="94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -25820,13 +27167,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>176</v>
-      </c>
       <c r="D17" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="92">
         <v>200</v>
@@ -25837,7 +27184,7 @@
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
       <c r="J17" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -25845,13 +27192,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="92" t="s">
-        <v>178</v>
-      </c>
       <c r="D18" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="92">
         <v>200</v>
@@ -25862,7 +27209,7 @@
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="J18" s="94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -25870,13 +27217,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>180</v>
-      </c>
       <c r="D19" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="92">
         <v>200</v>
@@ -25887,7 +27234,7 @@
       <c r="G19" s="93"/>
       <c r="H19" s="93"/>
       <c r="J19" s="94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -25895,13 +27242,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="92" t="s">
-        <v>182</v>
-      </c>
       <c r="D20" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="92">
         <v>64</v>
@@ -25920,13 +27267,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="92" t="s">
-        <v>184</v>
-      </c>
       <c r="D21" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="92">
         <v>64</v>
@@ -25943,13 +27290,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="92" t="s">
-        <v>186</v>
-      </c>
       <c r="D22" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="92">
         <v>64</v>
@@ -25966,13 +27313,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="92" t="s">
-        <v>104</v>
-      </c>
       <c r="D23" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="92">
         <v>64</v>
@@ -25981,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -25989,13 +27336,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="D24" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>107</v>
       </c>
       <c r="E24" s="92" t="s">
         <v>0</v>
@@ -26004,7 +27351,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -26012,13 +27359,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="92" t="s">
-        <v>109</v>
-      </c>
       <c r="D25" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="92">
         <v>64</v>
@@ -26027,7 +27374,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -26035,13 +27382,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>111</v>
-      </c>
       <c r="D26" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="92" t="s">
         <v>0</v>
@@ -26050,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -26058,13 +27405,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="92" t="s">
-        <v>113</v>
-      </c>
       <c r="D27" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="92">
         <v>255</v>
@@ -26073,7 +27420,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -26081,13 +27428,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="96" t="s">
-        <v>115</v>
-      </c>
       <c r="D28" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="96">
         <v>1</v>
@@ -26101,7 +27448,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +28176,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -26846,13 +28193,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
@@ -26862,13 +28209,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="107" t="s">
         <v>4</v>
@@ -26880,16 +28227,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="107" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="108" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -26897,13 +28244,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="101">
         <v>64</v>
@@ -26915,7 +28262,7 @@
       <c r="H5" s="102"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26923,13 +28270,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="92">
         <v>64</v>
@@ -26940,7 +28287,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
       <c r="J6" s="94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26948,13 +28295,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="92">
         <v>100</v>
@@ -26965,7 +28312,7 @@
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
       <c r="J7" s="94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -26973,13 +28320,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="92">
         <v>255</v>
@@ -26990,7 +28337,7 @@
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
       <c r="J8" s="94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26998,13 +28345,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="92">
         <v>255</v>
@@ -27015,7 +28362,7 @@
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
       <c r="J9" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.25">
@@ -27023,13 +28370,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="92">
         <v>1</v>
@@ -27040,7 +28387,7 @@
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
       <c r="J10" s="94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27048,13 +28395,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="92">
         <v>64</v>
@@ -27073,13 +28420,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="92">
         <v>64</v>
@@ -27098,13 +28445,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="92">
         <v>64</v>
@@ -27115,7 +28462,7 @@
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
       <c r="J13" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -27123,13 +28470,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="92" t="s">
         <v>0</v>
@@ -27140,7 +28487,7 @@
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="J14" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -27148,13 +28495,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="92">
         <v>64</v>
@@ -27165,7 +28512,7 @@
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
       <c r="J15" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -27173,13 +28520,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="92" t="s">
         <v>0</v>
@@ -27190,7 +28537,7 @@
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
       <c r="J16" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -27198,13 +28545,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="92">
         <v>255</v>
@@ -27215,7 +28562,7 @@
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
       <c r="J17" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -27223,13 +28570,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="96">
         <v>1</v>
@@ -27243,7 +28590,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
